--- a/matriz de evaluación_Indicadores.xlsx
+++ b/matriz de evaluación_Indicadores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragmir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pragmir\Desktop\Intento\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1FBF9-C412-4B3C-8DF2-7EEBC444E11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236ACB81-CA7A-46AE-82C1-35908182F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Actividad</t>
   </si>
@@ -127,6 +127,33 @@
   </si>
   <si>
     <t>Carritos abandonados: 200, Carritos iniciados: 400</t>
+  </si>
+  <si>
+    <t>0% - 30% = mal, 31% - 60% = regular, 61% - 100% = bueno</t>
+  </si>
+  <si>
+    <t>Si el porcentaje es alto, mantener estrategias; en caso contrario, realizar estudio de los precios de los productos</t>
+  </si>
+  <si>
+    <t>Si el porcentaje es bajo de lo regular, se reevaluarán los precios de los productos y se realizarán ofertas y promociones</t>
+  </si>
+  <si>
+    <t>0% - 10% = mal, 11% - 30% = regular, 31% - 100% = bueno</t>
+  </si>
+  <si>
+    <t>Si la tasa de conversión es baja, analizar y mejorar la experiencia del usuario en el sitio web</t>
+  </si>
+  <si>
+    <t>Implementar mejoras en la experiencia de usuario y en el diseño del sitio web para aumentar la tasa de conversión</t>
+  </si>
+  <si>
+    <t>0% - 20% = bueno, 21% - 50% = regular, 51% - 100% = mal</t>
+  </si>
+  <si>
+    <t>Si la tasa de abandono es alta, identificar las razones del abandono y mejorar el proceso de pago</t>
+  </si>
+  <si>
+    <t>Simplificar el proceso de pago y ofrecer incentivos como descuentos para finalizar la compra</t>
   </si>
 </sst>
 </file>
@@ -515,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,11 +644,17 @@
       <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -640,9 +673,15 @@
       <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -661,9 +700,15 @@
       <c r="F7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
